--- a/Valdepenas/asignaciones.xlsx
+++ b/Valdepenas/asignaciones.xlsx
@@ -25,94 +25,94 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>7711328731</t>
-  </si>
-  <si>
-    <t>7711546065</t>
-  </si>
-  <si>
-    <t>7711728731</t>
-  </si>
-  <si>
-    <t>7713634153</t>
-  </si>
-  <si>
-    <t>7721175511</t>
-  </si>
-  <si>
-    <t>7751009373</t>
-  </si>
-  <si>
-    <t>7751013130</t>
-  </si>
-  <si>
-    <t>7751014226</t>
-  </si>
-  <si>
-    <t>7751019464</t>
-  </si>
-  <si>
-    <t>7751055775</t>
-  </si>
-  <si>
-    <t>7751092638</t>
-  </si>
-  <si>
-    <t>7751102231</t>
-  </si>
-  <si>
-    <t>7751103295</t>
-  </si>
-  <si>
-    <t>7751106326</t>
-  </si>
-  <si>
-    <t>7751116940</t>
-  </si>
-  <si>
-    <t>7751171636</t>
-  </si>
-  <si>
-    <t>7751175511</t>
-  </si>
-  <si>
-    <t>7751177719</t>
-  </si>
-  <si>
-    <t>7751240630</t>
-  </si>
-  <si>
-    <t>7751252975</t>
-  </si>
-  <si>
-    <t>7751254749</t>
-  </si>
-  <si>
-    <t>7751264628</t>
-  </si>
-  <si>
-    <t>7751267172</t>
-  </si>
-  <si>
-    <t>7751271720</t>
-  </si>
-  <si>
-    <t>7751276583</t>
-  </si>
-  <si>
-    <t>7751282871</t>
-  </si>
-  <si>
-    <t>7751288817</t>
-  </si>
-  <si>
-    <t>7751360568</t>
-  </si>
-  <si>
-    <t>7751368081</t>
-  </si>
-  <si>
-    <t>7751373790</t>
+    <t>7757566977</t>
+  </si>
+  <si>
+    <t>7757583594</t>
+  </si>
+  <si>
+    <t>7757595032</t>
+  </si>
+  <si>
+    <t>7757603527</t>
+  </si>
+  <si>
+    <t>7757712366</t>
+  </si>
+  <si>
+    <t>7757712571</t>
+  </si>
+  <si>
+    <t>5624832443</t>
+  </si>
+  <si>
+    <t>7751399664</t>
+  </si>
+  <si>
+    <t>7751262509</t>
+  </si>
+  <si>
+    <t>7751117184</t>
+  </si>
+  <si>
+    <t>7751564599</t>
+  </si>
+  <si>
+    <t>7751609961</t>
+  </si>
+  <si>
+    <t>7751932428</t>
+  </si>
+  <si>
+    <t>7752155648</t>
+  </si>
+  <si>
+    <t>7752591701</t>
+  </si>
+  <si>
+    <t>7751238526</t>
+  </si>
+  <si>
+    <t>7751802047</t>
+  </si>
+  <si>
+    <t>7752604971</t>
+  </si>
+  <si>
+    <t>7751537772</t>
+  </si>
+  <si>
+    <t>7751107264</t>
+  </si>
+  <si>
+    <t>7757071611</t>
+  </si>
+  <si>
+    <t>5511567185</t>
+  </si>
+  <si>
+    <t>5532066622</t>
+  </si>
+  <si>
+    <t>6645941262</t>
+  </si>
+  <si>
+    <t>7751002613</t>
+  </si>
+  <si>
+    <t>7751002623</t>
+  </si>
+  <si>
+    <t>7751039445</t>
+  </si>
+  <si>
+    <t>7751192445</t>
+  </si>
+  <si>
+    <t>7751216083</t>
+  </si>
+  <si>
+    <t>7751222402</t>
   </si>
   <si>
     <t>📢 Le presento los *★Lotes Residenciales, Privada Tilo★*
